--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ntn3-Neo1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ntn3-Neo1.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2180816666666666</v>
+        <v>0.34281</v>
       </c>
       <c r="H2">
-        <v>0.654245</v>
+        <v>1.02843</v>
       </c>
       <c r="I2">
-        <v>0.08978107248204534</v>
+        <v>0.1253250783350286</v>
       </c>
       <c r="J2">
-        <v>0.08978107248204537</v>
+        <v>0.1253250783350286</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.661725</v>
+        <v>3.889188333333333</v>
       </c>
       <c r="N2">
-        <v>13.985175</v>
+        <v>11.667565</v>
       </c>
       <c r="O2">
-        <v>0.05162433427636418</v>
+        <v>0.04320782608967438</v>
       </c>
       <c r="P2">
-        <v>0.05162433427636419</v>
+        <v>0.04320782608967438</v>
       </c>
       <c r="Q2">
-        <v>1.016636757541667</v>
+        <v>1.33325265255</v>
       </c>
       <c r="R2">
-        <v>9.149730817875</v>
+        <v>11.99927387295</v>
       </c>
       <c r="S2">
-        <v>0.00463488809750359</v>
+        <v>0.005415024189374735</v>
       </c>
       <c r="T2">
-        <v>0.004634888097503592</v>
+        <v>0.005415024189374735</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.2180816666666666</v>
+        <v>0.34281</v>
       </c>
       <c r="H3">
-        <v>0.654245</v>
+        <v>1.02843</v>
       </c>
       <c r="I3">
-        <v>0.08978107248204534</v>
+        <v>0.1253250783350286</v>
       </c>
       <c r="J3">
-        <v>0.08978107248204537</v>
+        <v>0.1253250783350286</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>233.448043</v>
       </c>
       <c r="O3">
-        <v>0.8617410799646796</v>
+        <v>0.86451478461177</v>
       </c>
       <c r="P3">
-        <v>0.8617410799646797</v>
+        <v>0.8645147846117699</v>
       </c>
       <c r="Q3">
-        <v>16.97024609917055</v>
+        <v>26.67610787361</v>
       </c>
       <c r="R3">
-        <v>152.732214892535</v>
+        <v>240.08497086249</v>
       </c>
       <c r="S3">
-        <v>0.07736803836106493</v>
+        <v>0.1083453831032605</v>
       </c>
       <c r="T3">
-        <v>0.07736803836106497</v>
+        <v>0.1083453831032605</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2180816666666666</v>
+        <v>0.34281</v>
       </c>
       <c r="H4">
-        <v>0.654245</v>
+        <v>1.02843</v>
       </c>
       <c r="I4">
-        <v>0.08978107248204534</v>
+        <v>0.1253250783350286</v>
       </c>
       <c r="J4">
-        <v>0.08978107248204537</v>
+        <v>0.1253250783350286</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.524995</v>
+        <v>0.359731</v>
       </c>
       <c r="N4">
-        <v>1.574985</v>
+        <v>1.079193</v>
       </c>
       <c r="O4">
-        <v>0.005813838734249621</v>
+        <v>0.003996513707975397</v>
       </c>
       <c r="P4">
-        <v>0.005813838734249622</v>
+        <v>0.003996513707975397</v>
       </c>
       <c r="Q4">
-        <v>0.1144917845916667</v>
+        <v>0.12331938411</v>
       </c>
       <c r="R4">
-        <v>1.030426061325</v>
+        <v>1.10987445699</v>
       </c>
       <c r="S4">
-        <v>0.000521972676798588</v>
+        <v>0.0005008633935190324</v>
       </c>
       <c r="T4">
-        <v>0.0005219726767985882</v>
+        <v>0.0005008633935190324</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.2180816666666666</v>
+        <v>0.34281</v>
       </c>
       <c r="H5">
-        <v>0.654245</v>
+        <v>1.02843</v>
       </c>
       <c r="I5">
-        <v>0.08978107248204534</v>
+        <v>0.1253250783350286</v>
       </c>
       <c r="J5">
-        <v>0.08978107248204537</v>
+        <v>0.1253250783350286</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.804242666666666</v>
+        <v>7.581867</v>
       </c>
       <c r="N5">
-        <v>20.412728</v>
+        <v>22.745601</v>
       </c>
       <c r="O5">
-        <v>0.07535075490757169</v>
+        <v>0.08423248315420773</v>
       </c>
       <c r="P5">
-        <v>0.07535075490757169</v>
+        <v>0.08423248315420773</v>
       </c>
       <c r="Q5">
-        <v>1.483880581151111</v>
+        <v>2.59913982627</v>
       </c>
       <c r="R5">
-        <v>13.35492523036</v>
+        <v>23.39225843643</v>
       </c>
       <c r="S5">
-        <v>0.006765071587933527</v>
+        <v>0.01055644254965506</v>
       </c>
       <c r="T5">
-        <v>0.006765071587933529</v>
+        <v>0.01055644254965506</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.2180816666666666</v>
+        <v>0.34281</v>
       </c>
       <c r="H6">
-        <v>0.654245</v>
+        <v>1.02843</v>
       </c>
       <c r="I6">
-        <v>0.08978107248204534</v>
+        <v>0.1253250783350286</v>
       </c>
       <c r="J6">
-        <v>0.08978107248204537</v>
+        <v>0.1253250783350286</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.4939453333333334</v>
+        <v>0.3644006666666667</v>
       </c>
       <c r="N6">
-        <v>1.481836</v>
+        <v>1.093202</v>
       </c>
       <c r="O6">
-        <v>0.005469992117134781</v>
+        <v>0.004048392436372474</v>
       </c>
       <c r="P6">
-        <v>0.005469992117134781</v>
+        <v>0.004048392436372474</v>
       </c>
       <c r="Q6">
-        <v>0.1077204215355556</v>
+        <v>0.12492019254</v>
       </c>
       <c r="R6">
-        <v>0.9694837938200001</v>
+        <v>1.12428173286</v>
       </c>
       <c r="S6">
-        <v>0.0004911017587446944</v>
+        <v>0.0005073650992193177</v>
       </c>
       <c r="T6">
-        <v>0.0004911017587446945</v>
+        <v>0.0005073650992193177</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>4.299691</v>
       </c>
       <c r="I7">
-        <v>0.5900402285403756</v>
+        <v>0.5239628476332056</v>
       </c>
       <c r="J7">
-        <v>0.5900402285403757</v>
+        <v>0.5239628476332056</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.661725</v>
+        <v>3.889188333333333</v>
       </c>
       <c r="N7">
-        <v>13.985175</v>
+        <v>11.667565</v>
       </c>
       <c r="O7">
-        <v>0.05162433427636418</v>
+        <v>0.04320782608967438</v>
       </c>
       <c r="P7">
-        <v>0.05162433427636419</v>
+        <v>0.04320782608967438</v>
       </c>
       <c r="Q7">
-        <v>6.681325675658333</v>
+        <v>5.574102691379444</v>
       </c>
       <c r="R7">
-        <v>60.131931080925</v>
+        <v>50.166924222415</v>
       </c>
       <c r="S7">
-        <v>0.03046043399467067</v>
+        <v>0.0226392955979861</v>
       </c>
       <c r="T7">
-        <v>0.03046043399467068</v>
+        <v>0.0226392955979861</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>4.299691</v>
       </c>
       <c r="I8">
-        <v>0.5900402285403756</v>
+        <v>0.5239628476332056</v>
       </c>
       <c r="J8">
-        <v>0.5900402285403757</v>
+        <v>0.5239628476332056</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>233.448043</v>
       </c>
       <c r="O8">
-        <v>0.8617410799646796</v>
+        <v>0.86451478461177</v>
       </c>
       <c r="P8">
-        <v>0.8617410799646797</v>
+        <v>0.8645147846117699</v>
       </c>
       <c r="Q8">
         <v>111.5282721616348</v>
@@ -948,10 +948,10 @@
         <v>1003.754449454713</v>
       </c>
       <c r="S8">
-        <v>0.5084619037649897</v>
+        <v>0.4529736283661904</v>
       </c>
       <c r="T8">
-        <v>0.5084619037649899</v>
+        <v>0.4529736283661903</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>4.299691</v>
       </c>
       <c r="I9">
-        <v>0.5900402285403756</v>
+        <v>0.5239628476332056</v>
       </c>
       <c r="J9">
-        <v>0.5900402285403757</v>
+        <v>0.5239628476332056</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.524995</v>
+        <v>0.359731</v>
       </c>
       <c r="N9">
-        <v>1.574985</v>
+        <v>1.079193</v>
       </c>
       <c r="O9">
-        <v>0.005813838734249621</v>
+        <v>0.003996513707975397</v>
       </c>
       <c r="P9">
-        <v>0.005813838734249622</v>
+        <v>0.003996513707975397</v>
       </c>
       <c r="Q9">
-        <v>0.7524387588483333</v>
+        <v>0.5155773810403333</v>
       </c>
       <c r="R9">
-        <v>6.771948829635001</v>
+        <v>4.640196429363001</v>
       </c>
       <c r="S9">
-        <v>0.003430398735453535</v>
+        <v>0.002094024703035931</v>
       </c>
       <c r="T9">
-        <v>0.003430398735453536</v>
+        <v>0.002094024703035931</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>4.299691</v>
       </c>
       <c r="I10">
-        <v>0.5900402285403756</v>
+        <v>0.5239628476332056</v>
       </c>
       <c r="J10">
-        <v>0.5900402285403757</v>
+        <v>0.5239628476332056</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.804242666666666</v>
+        <v>7.581867</v>
       </c>
       <c r="N10">
-        <v>20.412728</v>
+        <v>22.745601</v>
       </c>
       <c r="O10">
-        <v>0.07535075490757169</v>
+        <v>0.08423248315420773</v>
       </c>
       <c r="P10">
-        <v>0.07535075490757169</v>
+        <v>0.08423248315420773</v>
       </c>
       <c r="Q10">
-        <v>9.752046985227555</v>
+        <v>10.866561767699</v>
       </c>
       <c r="R10">
-        <v>87.76842286704799</v>
+        <v>97.79905590929101</v>
       </c>
       <c r="S10">
-        <v>0.04445997664635343</v>
+        <v>0.0441346917366947</v>
       </c>
       <c r="T10">
-        <v>0.04445997664635344</v>
+        <v>0.0441346917366947</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>4.299691</v>
       </c>
       <c r="I11">
-        <v>0.5900402285403756</v>
+        <v>0.5239628476332056</v>
       </c>
       <c r="J11">
-        <v>0.5900402285403757</v>
+        <v>0.5239628476332056</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.4939453333333334</v>
+        <v>0.3644006666666667</v>
       </c>
       <c r="N11">
-        <v>1.481836</v>
+        <v>1.093202</v>
       </c>
       <c r="O11">
-        <v>0.005469992117134781</v>
+        <v>0.004048392436372474</v>
       </c>
       <c r="P11">
-        <v>0.005469992117134781</v>
+        <v>0.004048392436372474</v>
       </c>
       <c r="Q11">
-        <v>0.7079374347417779</v>
+        <v>0.5222700889535555</v>
       </c>
       <c r="R11">
-        <v>6.371436912676001</v>
+        <v>4.700430800582001</v>
       </c>
       <c r="S11">
-        <v>0.003227515398908259</v>
+        <v>0.002121207229298453</v>
       </c>
       <c r="T11">
-        <v>0.00322751539890826</v>
+        <v>0.002121207229298453</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.2878813333333333</v>
+        <v>0.485713</v>
       </c>
       <c r="H12">
-        <v>0.863644</v>
+        <v>1.457139</v>
       </c>
       <c r="I12">
-        <v>0.1185165871541755</v>
+        <v>0.1775678065789847</v>
       </c>
       <c r="J12">
-        <v>0.1185165871541756</v>
+        <v>0.1775678065789847</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.661725</v>
+        <v>3.889188333333333</v>
       </c>
       <c r="N12">
-        <v>13.985175</v>
+        <v>11.667565</v>
       </c>
       <c r="O12">
-        <v>0.05162433427636418</v>
+        <v>0.04320782608967438</v>
       </c>
       <c r="P12">
-        <v>0.05162433427636419</v>
+        <v>0.04320782608967438</v>
       </c>
       <c r="Q12">
-        <v>1.342023608633333</v>
+        <v>1.889029332948333</v>
       </c>
       <c r="R12">
-        <v>12.0782124777</v>
+        <v>17.001263996535</v>
       </c>
       <c r="S12">
-        <v>0.006118339912541008</v>
+        <v>0.007672318905789709</v>
       </c>
       <c r="T12">
-        <v>0.006118339912541008</v>
+        <v>0.007672318905789709</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.2878813333333333</v>
+        <v>0.485713</v>
       </c>
       <c r="H13">
-        <v>0.863644</v>
+        <v>1.457139</v>
       </c>
       <c r="I13">
-        <v>0.1185165871541755</v>
+        <v>0.1775678065789847</v>
       </c>
       <c r="J13">
-        <v>0.1185165871541756</v>
+        <v>0.1775678065789847</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>233.448043</v>
       </c>
       <c r="O13">
-        <v>0.8617410799646796</v>
+        <v>0.86451478461177</v>
       </c>
       <c r="P13">
-        <v>0.8617410799646797</v>
+        <v>0.8645147846117699</v>
       </c>
       <c r="Q13">
-        <v>22.40177796096577</v>
+        <v>37.79624976988633</v>
       </c>
       <c r="R13">
-        <v>201.616001648692</v>
+        <v>340.166247928977</v>
       </c>
       <c r="S13">
-        <v>0.1021306118079673</v>
+        <v>0.1535099940586154</v>
       </c>
       <c r="T13">
-        <v>0.1021306118079673</v>
+        <v>0.1535099940586154</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.2878813333333333</v>
+        <v>0.485713</v>
       </c>
       <c r="H14">
-        <v>0.863644</v>
+        <v>1.457139</v>
       </c>
       <c r="I14">
-        <v>0.1185165871541755</v>
+        <v>0.1775678065789847</v>
       </c>
       <c r="J14">
-        <v>0.1185165871541756</v>
+        <v>0.1775678065789847</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.524995</v>
+        <v>0.359731</v>
       </c>
       <c r="N14">
-        <v>1.574985</v>
+        <v>1.079193</v>
       </c>
       <c r="O14">
-        <v>0.005813838734249621</v>
+        <v>0.003996513707975397</v>
       </c>
       <c r="P14">
-        <v>0.005813838734249622</v>
+        <v>0.003996513707975397</v>
       </c>
       <c r="Q14">
-        <v>0.1511362605933333</v>
+        <v>0.174726023203</v>
       </c>
       <c r="R14">
-        <v>1.36022634534</v>
+        <v>1.572534208827</v>
       </c>
       <c r="S14">
-        <v>0.0006890363250480168</v>
+        <v>0.0007096521730880364</v>
       </c>
       <c r="T14">
-        <v>0.000689036325048017</v>
+        <v>0.0007096521730880364</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.2878813333333333</v>
+        <v>0.485713</v>
       </c>
       <c r="H15">
-        <v>0.863644</v>
+        <v>1.457139</v>
       </c>
       <c r="I15">
-        <v>0.1185165871541755</v>
+        <v>0.1775678065789847</v>
       </c>
       <c r="J15">
-        <v>0.1185165871541756</v>
+        <v>0.1775678065789847</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.804242666666666</v>
+        <v>7.581867</v>
       </c>
       <c r="N15">
-        <v>20.412728</v>
+        <v>22.745601</v>
       </c>
       <c r="O15">
-        <v>0.07535075490757169</v>
+        <v>0.08423248315420773</v>
       </c>
       <c r="P15">
-        <v>0.07535075490757169</v>
+        <v>0.08423248315420773</v>
       </c>
       <c r="Q15">
-        <v>1.958814451203555</v>
+        <v>3.682611366171</v>
       </c>
       <c r="R15">
-        <v>17.629330060832</v>
+        <v>33.143502295539</v>
       </c>
       <c r="S15">
-        <v>0.008930314311136141</v>
+        <v>0.01495697727639395</v>
       </c>
       <c r="T15">
-        <v>0.008930314311136141</v>
+        <v>0.01495697727639395</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.2878813333333333</v>
+        <v>0.485713</v>
       </c>
       <c r="H16">
-        <v>0.863644</v>
+        <v>1.457139</v>
       </c>
       <c r="I16">
-        <v>0.1185165871541755</v>
+        <v>0.1775678065789847</v>
       </c>
       <c r="J16">
-        <v>0.1185165871541756</v>
+        <v>0.1775678065789847</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.4939453333333334</v>
+        <v>0.3644006666666667</v>
       </c>
       <c r="N16">
-        <v>1.481836</v>
+        <v>1.093202</v>
       </c>
       <c r="O16">
-        <v>0.005469992117134781</v>
+        <v>0.004048392436372474</v>
       </c>
       <c r="P16">
-        <v>0.005469992117134781</v>
+        <v>0.004048392436372474</v>
       </c>
       <c r="Q16">
-        <v>0.1421976411537778</v>
+        <v>0.1769941410086667</v>
       </c>
       <c r="R16">
-        <v>1.279778770384</v>
+        <v>1.592947269078</v>
       </c>
       <c r="S16">
-        <v>0.0006482847974830574</v>
+        <v>0.0007188641650976122</v>
       </c>
       <c r="T16">
-        <v>0.0006482847974830575</v>
+        <v>0.0007188641650976122</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.2132233333333333</v>
+        <v>0.2505783333333333</v>
       </c>
       <c r="H17">
-        <v>0.6396700000000001</v>
+        <v>0.751735</v>
       </c>
       <c r="I17">
-        <v>0.08778096681608565</v>
+        <v>0.09160686460156038</v>
       </c>
       <c r="J17">
-        <v>0.08778096681608566</v>
+        <v>0.09160686460156038</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.661725</v>
+        <v>3.889188333333333</v>
       </c>
       <c r="N17">
-        <v>13.985175</v>
+        <v>11.667565</v>
       </c>
       <c r="O17">
-        <v>0.05162433427636418</v>
+        <v>0.04320782608967438</v>
       </c>
       <c r="P17">
-        <v>0.05162433427636419</v>
+        <v>0.04320782608967438</v>
       </c>
       <c r="Q17">
-        <v>0.9939885435833333</v>
+        <v>0.9745463305861112</v>
       </c>
       <c r="R17">
-        <v>8.945896892250001</v>
+        <v>8.770916975275</v>
       </c>
       <c r="S17">
-        <v>0.004531633974016037</v>
+        <v>0.003958133474324569</v>
       </c>
       <c r="T17">
-        <v>0.004531633974016038</v>
+        <v>0.003958133474324569</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.2132233333333333</v>
+        <v>0.2505783333333333</v>
       </c>
       <c r="H18">
-        <v>0.6396700000000001</v>
+        <v>0.751735</v>
       </c>
       <c r="I18">
-        <v>0.08778096681608565</v>
+        <v>0.09160686460156038</v>
       </c>
       <c r="J18">
-        <v>0.08778096681608566</v>
+        <v>0.09160686460156038</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>233.448043</v>
       </c>
       <c r="O18">
-        <v>0.8617410799646796</v>
+        <v>0.86451478461177</v>
       </c>
       <c r="P18">
-        <v>0.8617410799646797</v>
+        <v>0.8645147846117699</v>
       </c>
       <c r="Q18">
-        <v>16.59218996286778</v>
+        <v>19.49900717828944</v>
       </c>
       <c r="R18">
-        <v>149.32970966581</v>
+        <v>175.491064604605</v>
       </c>
       <c r="S18">
-        <v>0.07564446514443735</v>
+        <v>0.07919548881997755</v>
       </c>
       <c r="T18">
-        <v>0.07564446514443737</v>
+        <v>0.07919548881997754</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.2132233333333333</v>
+        <v>0.2505783333333333</v>
       </c>
       <c r="H19">
-        <v>0.6396700000000001</v>
+        <v>0.751735</v>
       </c>
       <c r="I19">
-        <v>0.08778096681608565</v>
+        <v>0.09160686460156038</v>
       </c>
       <c r="J19">
-        <v>0.08778096681608566</v>
+        <v>0.09160686460156038</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.524995</v>
+        <v>0.359731</v>
       </c>
       <c r="N19">
-        <v>1.574985</v>
+        <v>1.079193</v>
       </c>
       <c r="O19">
-        <v>0.005813838734249621</v>
+        <v>0.003996513707975397</v>
       </c>
       <c r="P19">
-        <v>0.005813838734249622</v>
+        <v>0.003996513707975397</v>
       </c>
       <c r="Q19">
-        <v>0.1119411838833333</v>
+        <v>0.09014079442833334</v>
       </c>
       <c r="R19">
-        <v>1.00747065495</v>
+        <v>0.8112671498550001</v>
       </c>
       <c r="S19">
-        <v>0.0005103443850052394</v>
+        <v>0.0003661080901247822</v>
       </c>
       <c r="T19">
-        <v>0.0005103443850052395</v>
+        <v>0.0003661080901247822</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.2132233333333333</v>
+        <v>0.2505783333333333</v>
       </c>
       <c r="H20">
-        <v>0.6396700000000001</v>
+        <v>0.751735</v>
       </c>
       <c r="I20">
-        <v>0.08778096681608565</v>
+        <v>0.09160686460156038</v>
       </c>
       <c r="J20">
-        <v>0.08778096681608566</v>
+        <v>0.09160686460156038</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.804242666666666</v>
+        <v>7.581867</v>
       </c>
       <c r="N20">
-        <v>20.412728</v>
+        <v>22.745601</v>
       </c>
       <c r="O20">
-        <v>0.07535075490757169</v>
+        <v>0.08423248315420773</v>
       </c>
       <c r="P20">
-        <v>0.07535075490757169</v>
+        <v>0.08423248315420773</v>
       </c>
       <c r="Q20">
-        <v>1.450823302195556</v>
+        <v>1.899851596415</v>
       </c>
       <c r="R20">
-        <v>13.05740971976</v>
+        <v>17.098664367735</v>
       </c>
       <c r="S20">
-        <v>0.006614362116108553</v>
+        <v>0.007716273679360723</v>
       </c>
       <c r="T20">
-        <v>0.006614362116108555</v>
+        <v>0.007716273679360723</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.2132233333333333</v>
+        <v>0.2505783333333333</v>
       </c>
       <c r="H21">
-        <v>0.6396700000000001</v>
+        <v>0.751735</v>
       </c>
       <c r="I21">
-        <v>0.08778096681608565</v>
+        <v>0.09160686460156038</v>
       </c>
       <c r="J21">
-        <v>0.08778096681608566</v>
+        <v>0.09160686460156038</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.4939453333333334</v>
+        <v>0.3644006666666667</v>
       </c>
       <c r="N21">
-        <v>1.481836</v>
+        <v>1.093202</v>
       </c>
       <c r="O21">
-        <v>0.005469992117134781</v>
+        <v>0.004048392436372474</v>
       </c>
       <c r="P21">
-        <v>0.005469992117134781</v>
+        <v>0.004048392436372474</v>
       </c>
       <c r="Q21">
-        <v>0.1053206704577778</v>
+        <v>0.09131091171888889</v>
       </c>
       <c r="R21">
-        <v>0.9478860341200002</v>
+        <v>0.82179820547</v>
       </c>
       <c r="S21">
-        <v>0.0004801611965184583</v>
+        <v>0.0003708605377727544</v>
       </c>
       <c r="T21">
-        <v>0.0004801611965184584</v>
+        <v>0.0003708605377727544</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.2766216666666667</v>
+        <v>0.2230346666666667</v>
       </c>
       <c r="H22">
-        <v>0.8298650000000001</v>
+        <v>0.669104</v>
       </c>
       <c r="I22">
-        <v>0.1138811450073177</v>
+        <v>0.08153740285122078</v>
       </c>
       <c r="J22">
-        <v>0.1138811450073177</v>
+        <v>0.08153740285122078</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>4.661725</v>
+        <v>3.889188333333333</v>
       </c>
       <c r="N22">
-        <v>13.985175</v>
+        <v>11.667565</v>
       </c>
       <c r="O22">
-        <v>0.05162433427636418</v>
+        <v>0.04320782608967438</v>
       </c>
       <c r="P22">
-        <v>0.05162433427636419</v>
+        <v>0.04320782608967438</v>
       </c>
       <c r="Q22">
-        <v>1.289534139041667</v>
+        <v>0.8674238235288889</v>
       </c>
       <c r="R22">
-        <v>11.605807251375</v>
+        <v>7.80681441176</v>
       </c>
       <c r="S22">
-        <v>0.005879038297632872</v>
+        <v>0.003523053922199267</v>
       </c>
       <c r="T22">
-        <v>0.005879038297632873</v>
+        <v>0.003523053922199267</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.2766216666666667</v>
+        <v>0.2230346666666667</v>
       </c>
       <c r="H23">
-        <v>0.8298650000000001</v>
+        <v>0.669104</v>
       </c>
       <c r="I23">
-        <v>0.1138811450073177</v>
+        <v>0.08153740285122078</v>
       </c>
       <c r="J23">
-        <v>0.1138811450073177</v>
+        <v>0.08153740285122078</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>233.448043</v>
       </c>
       <c r="O23">
-        <v>0.8617410799646796</v>
+        <v>0.86451478461177</v>
       </c>
       <c r="P23">
-        <v>0.8617410799646797</v>
+        <v>0.8645147846117699</v>
       </c>
       <c r="Q23">
-        <v>21.52559557824389</v>
+        <v>17.35566881816355</v>
       </c>
       <c r="R23">
-        <v>193.730360204195</v>
+        <v>156.201019363472</v>
       </c>
       <c r="S23">
-        <v>0.09813606088622026</v>
+        <v>0.07049029026372626</v>
       </c>
       <c r="T23">
-        <v>0.09813606088622027</v>
+        <v>0.07049029026372625</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.2766216666666667</v>
+        <v>0.2230346666666667</v>
       </c>
       <c r="H24">
-        <v>0.8298650000000001</v>
+        <v>0.669104</v>
       </c>
       <c r="I24">
-        <v>0.1138811450073177</v>
+        <v>0.08153740285122078</v>
       </c>
       <c r="J24">
-        <v>0.1138811450073177</v>
+        <v>0.08153740285122078</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.524995</v>
+        <v>0.359731</v>
       </c>
       <c r="N24">
-        <v>1.574985</v>
+        <v>1.079193</v>
       </c>
       <c r="O24">
-        <v>0.005813838734249621</v>
+        <v>0.003996513707975397</v>
       </c>
       <c r="P24">
-        <v>0.005813838734249622</v>
+        <v>0.003996513707975397</v>
       </c>
       <c r="Q24">
-        <v>0.1452249918916667</v>
+        <v>0.08023248367466668</v>
       </c>
       <c r="R24">
-        <v>1.307024927025</v>
+        <v>0.722092353072</v>
       </c>
       <c r="S24">
-        <v>0.0006620866119442416</v>
+        <v>0.0003258653482076161</v>
       </c>
       <c r="T24">
-        <v>0.0006620866119442417</v>
+        <v>0.0003258653482076161</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.2766216666666667</v>
+        <v>0.2230346666666667</v>
       </c>
       <c r="H25">
-        <v>0.8298650000000001</v>
+        <v>0.669104</v>
       </c>
       <c r="I25">
-        <v>0.1138811450073177</v>
+        <v>0.08153740285122078</v>
       </c>
       <c r="J25">
-        <v>0.1138811450073177</v>
+        <v>0.08153740285122078</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>6.804242666666666</v>
+        <v>7.581867</v>
       </c>
       <c r="N25">
-        <v>20.412728</v>
+        <v>22.745601</v>
       </c>
       <c r="O25">
-        <v>0.07535075490757169</v>
+        <v>0.08423248315420773</v>
       </c>
       <c r="P25">
-        <v>0.07535075490757169</v>
+        <v>0.08423248315420773</v>
       </c>
       <c r="Q25">
-        <v>1.882200946857778</v>
+        <v>1.691019179056</v>
       </c>
       <c r="R25">
-        <v>16.93980852172</v>
+        <v>15.219172611504</v>
       </c>
       <c r="S25">
-        <v>0.008581030246040029</v>
+        <v>0.006868097912103304</v>
       </c>
       <c r="T25">
-        <v>0.008581030246040029</v>
+        <v>0.006868097912103304</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.2766216666666667</v>
+        <v>0.2230346666666667</v>
       </c>
       <c r="H26">
-        <v>0.8298650000000001</v>
+        <v>0.669104</v>
       </c>
       <c r="I26">
-        <v>0.1138811450073177</v>
+        <v>0.08153740285122078</v>
       </c>
       <c r="J26">
-        <v>0.1138811450073177</v>
+        <v>0.08153740285122078</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.4939453333333334</v>
+        <v>0.3644006666666667</v>
       </c>
       <c r="N26">
-        <v>1.481836</v>
+        <v>1.093202</v>
       </c>
       <c r="O26">
-        <v>0.005469992117134781</v>
+        <v>0.004048392436372474</v>
       </c>
       <c r="P26">
-        <v>0.005469992117134781</v>
+        <v>0.004048392436372474</v>
       </c>
       <c r="Q26">
-        <v>0.1366359813488889</v>
+        <v>0.08127398122311111</v>
       </c>
       <c r="R26">
-        <v>1.22972383214</v>
+        <v>0.731465831008</v>
       </c>
       <c r="S26">
-        <v>0.0006229289654803108</v>
+        <v>0.0003300954049843377</v>
       </c>
       <c r="T26">
-        <v>0.0006229289654803108</v>
+        <v>0.0003300954049843377</v>
       </c>
     </row>
   </sheetData>
